--- a/02_test_cases/2_product_navigation/product_navigation.xlsx
+++ b/02_test_cases/2_product_navigation/product_navigation.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\swag_labs\swaglabs-qa-manual-project\02_test_cases\2_product_navigation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7C6375-222D-4813-9F5D-8A608474EE9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Hoja 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="67">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -43,9 +52,6 @@
     <t>User logged in as "standard_user"</t>
   </si>
   <si>
-    <t>1. Go to "https://www.saucedemo.com/" 2. Log in with standard_user                    3. Observe the inventory page</t>
-  </si>
-  <si>
     <t>All products are visible with image, name, and price</t>
   </si>
   <si>
@@ -130,12 +136,6 @@
     <t>TC_product_navigation_07</t>
   </si>
   <si>
-    <t>User is logged in as problem_user</t>
-  </si>
-  <si>
-    <t>1. Login with username problem_user and password secret_sauce                                               2. Observe product images on inventory page</t>
-  </si>
-  <si>
     <t>Each product shows its correct image</t>
   </si>
   <si>
@@ -182,46 +182,95 @@
   </si>
   <si>
     <t>When clicking on "Sauce Labs Backpack", the page for "Sauce Labs Bike Light" (or another incorrect product) is displayed instead, with its corresponding details.</t>
+  </si>
+  <si>
+    <t>1. Login with                             username: problem_user          password: secret_sauce</t>
+  </si>
+  <si>
+    <t>1. Observe product images on inventory page</t>
+  </si>
+  <si>
+    <t>TC_product_navigation_13</t>
+  </si>
+  <si>
+    <t>User is logged in with:             username: error_user   password: secret_sauce User is on the Inventory page (/inventory.html).</t>
+  </si>
+  <si>
+    <t>1. Click the sort dropdown located at the top right of the product list.                                         3. Select “Name (Z to A)”</t>
+  </si>
+  <si>
+    <t>A popup message appears: “Sorting is broken! This error has been reported to Backtrace.”
+Products are not sorted correctly.</t>
+  </si>
+  <si>
+    <t>TC_product_navigation_14</t>
+  </si>
+  <si>
+    <t>1. Click the sort dropdown located at the top right of the product list.                                         3. Select “Price (low to high)”</t>
+  </si>
+  <si>
+    <t>A popup message appears: “Sorting is broken! This error has been reported to Backtrace.”</t>
+  </si>
+  <si>
+    <t>TC_product_navigation_15</t>
+  </si>
+  <si>
+    <t>1. Click the sort dropdown located at the top right of the product list.                                         3. Select “Price (high to low)”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Products sorted from highest to lowest price	</t>
+  </si>
+  <si>
+    <t>1. Go to "https://www.saucedemo.com/" 2. Log in with :                           username: standard_user           password: secret_sauce                         3. Observe the inventory page</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF343333"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -235,9 +284,33 @@
         <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -251,47 +324,60 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -481,27 +567,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABE09C5C-271F-40FC-AAEF-2BAFE95B184D}">
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="22.13"/>
-    <col customWidth="1" min="2" max="2" width="21.13"/>
-    <col customWidth="1" min="3" max="3" width="20.38"/>
-    <col customWidth="1" min="4" max="4" width="32.75"/>
-    <col customWidth="1" min="5" max="6" width="22.75"/>
+    <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="35.85546875" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -524,283 +614,352 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:7" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="E4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="F10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="F11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="6" t="s">
+      <c r="F12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="3" t="s">
+    </row>
+    <row r="13" spans="1:7" s="6" customFormat="1" ht="105" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="6" customFormat="1" ht="105" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="3" t="s">
+      <c r="F14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="3" t="s">
+      <c r="D15" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>43</v>
+      <c r="D16" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/02_test_cases/2_product_navigation/product_navigation.xlsx
+++ b/02_test_cases/2_product_navigation/product_navigation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\swag_labs\swaglabs-qa-manual-project\02_test_cases\2_product_navigation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7C6375-222D-4813-9F5D-8A608474EE9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881AEA5F-57D8-439A-AEE2-D95F876292CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -576,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABE09C5C-271F-40FC-AAEF-2BAFE95B184D}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -637,7 +637,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -660,7 +660,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
@@ -683,7 +683,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>23</v>
       </c>
@@ -706,7 +706,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>28</v>
       </c>
@@ -729,7 +729,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>32</v>
       </c>
@@ -775,7 +775,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>41</v>
       </c>
@@ -798,7 +798,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>44</v>
       </c>
@@ -821,7 +821,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>45</v>
       </c>
@@ -844,7 +844,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>48</v>
       </c>
